--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_51.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_51.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_13</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_49</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06821705426356589</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj']]</t>
+          <t>[['G:maj(*1)/5', 'G', 'G'], ['A:min', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(23.629455, 29.120975)]</t>
+          <t>[['G', 'G', 'G'], ['A:min', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(52.02, 58.84)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:10.454596', '0:00:24.259614'), ('0:01:38.075850', '0:01:50.185056')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:20.940758', '0:00:23.936132'), ('0:00:01.187152', '0:00:07.043615')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3342175066312997</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09018567639257294</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['F:min', 'C:7/F', 'F:min'], ['F:min', 'C:maj/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(29.1, 45.98)]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.66, 8.22)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:14.920000', '0:00:20.760000'), ('0:00:05.840000', '0:00:12.720000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:24.620000', '0:01:31.740000'), ('0:00:15.600000', '0:00:24.080000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_125</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07737656595431097</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D/b7', 'D/6', 'D/5', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_79</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1113671274961597</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'D/2', 'D/3', 'G']]</t>
+          <t>[['F:maj', 'F:maj', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(36.47331, 41.361111)]</t>
+          <t>[['Bb', 'Bb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(78.063729, 83.0328)]</t>
+          <t>[('0:01:21.940000', '0:01:37.580000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>[('0:00:13.050000', '0:00:15.800000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_79</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07731416549789621</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B'], ['G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0782520325203252</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'F:7']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(20.08, 22.56), (20.74, 23.2)]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(10.86, 14.13), (7.59, 10.86)]</t>
+          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:02.530000', '0:01:06.230000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1829032258064516</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:7', 'Bb:7', 'Eb', 'Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1988636363636364</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7', 'Ab', 'Ab', 'Ab', 'Ab']]</t>
+          <t>[['C:maj', 'G', 'C/5'], ['G', 'C/5', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(39.91, 48.87)]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(98.87, 106.35)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:57.406099', '0:01:02.804739'), ('0:00:59.182426', '0:01:04.464965')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1868131868131868</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(2.5, 26.2)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(148.857891, 153.176802)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2385964912280702</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(128.76, 134.0)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(10.634761, 19.597664)]</t>
+          <t>[('0:00:55.840000', '0:01:05.040000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:03.220000', '0:00:18.300000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08035714285714285</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'D/3']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.336, 13.342)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(63.524557, 70.536984)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1018099547511312</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(52.680839, 55.420793)]</t>
+          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:01:43', '0:02:02.840000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:31', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(68.64, 77.38), (41.38, 43.34), (87.2, 97.22)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(226.62, 230.46), (20.92, 24.02), (7.3, 10.3)]</t>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(96.84, 103.06), (41.32, 48.94)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(86.26, 92.7), (118.18, 123.04)]</t>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.233974358974359</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(39.9, 43.62)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(37.84, 45.9)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1868131868131868</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.78, 23.84)]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(148.857891, 153.176802)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2873563218390804</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(47.02, 61.58)]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(23.8, 55.36)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(79.98, 93.6)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(205.86, 217.18)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_38</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_41</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(49.28, 53.94)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(13.74, 16.3)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
